--- a/data/trans_dic/P32A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0299231818611784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03584917956478339</v>
+        <v>0.03584917956478338</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.005060122766347324</v>
@@ -697,7 +697,7 @@
         <v>0.02262981096598561</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02801256747829243</v>
+        <v>0.02801256747829241</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009724296676179717</v>
+        <v>0.00969987242839768</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02367402791734294</v>
+        <v>0.02342720510517953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01661862896083604</v>
+        <v>0.01637890517711439</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01821373063515586</v>
+        <v>0.01799119668955925</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00288569074837714</v>
+        <v>0.002883796939954535</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0036470032334799</v>
+        <v>0.003716240319541795</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007566886296344912</v>
+        <v>0.006541314340012097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01754311803068366</v>
+        <v>0.01783114831177611</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01388020264700741</v>
+        <v>0.01436091284891713</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0160784665107758</v>
+        <v>0.0163068673007894</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04353126295135444</v>
+        <v>0.04413945829647768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05651494458397097</v>
+        <v>0.05492535480556073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04737088517658897</v>
+        <v>0.04714751986060847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06523787340500863</v>
+        <v>0.06482470035294126</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02744331395170421</v>
+        <v>0.02069342721063251</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02154466040723593</v>
+        <v>0.02424342529719853</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02627812209529126</v>
+        <v>0.02456846190615546</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03863177673012693</v>
+        <v>0.04398209016071393</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03057718521314524</v>
+        <v>0.02900858084130464</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04089653402108285</v>
+        <v>0.04068577885677085</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03453092870347139</v>
+        <v>0.03402047098023626</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04808290003853396</v>
+        <v>0.04819955268536276</v>
       </c>
     </row>
     <row r="7">
@@ -844,36 +844,36 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006429797649001538</v>
+        <v>0.006302214433153447</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00986469345638725</v>
+        <v>0.009267483928151301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004151460880736237</v>
+        <v>0.005410632345757439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00671676089844723</v>
+        <v>0.007077164133069703</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.003260115400788508</v>
+        <v>0.003269480595807762</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00494487630667535</v>
+        <v>0.00522038534850672</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004537958738996839</v>
+        <v>0.005449199918521655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006362290556037761</v>
+        <v>0.005980915221254722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006033055175608665</v>
+        <v>0.005992473948650827</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.009057368560050095</v>
+        <v>0.0089237944725489</v>
       </c>
     </row>
     <row r="9">
@@ -884,36 +884,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02698586405165158</v>
+        <v>0.02558072313637105</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03822074226986781</v>
+        <v>0.03605418545165178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02332430067130935</v>
+        <v>0.02463211713038998</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03068761457852899</v>
+        <v>0.03029894289781389</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.02888210762429167</v>
+        <v>0.03090397991804643</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04294787312789134</v>
+        <v>0.04419751792314569</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01812750430615928</v>
+        <v>0.01977831532347683</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02354147542091329</v>
+        <v>0.02402914614097462</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02265681333084435</v>
+        <v>0.0210234211116793</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02898698404100074</v>
+        <v>0.02876647908947714</v>
       </c>
     </row>
     <row r="10">
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001468742987008135</v>
+        <v>0.00146423204840572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01272016899326306</v>
+        <v>0.01300698986435843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004253233132332551</v>
+        <v>0.005199813886008713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004079847606267732</v>
+        <v>0.004326217224249449</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007892695686026649</v>
+        <v>0.007955584858658096</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007383653474348856</v>
+        <v>0.007385661596067796</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008105716991698035</v>
+        <v>0.006402445137042262</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001567208642177529</v>
+        <v>0.001050261984577878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01424971257426825</v>
+        <v>0.0138743187150037</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007713671196137731</v>
+        <v>0.008316114488006562</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.007197675007000875</v>
+        <v>0.007679727517491994</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01673777225500426</v>
+        <v>0.01677342538382211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04088511232067996</v>
+        <v>0.04164236804968709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02374537939580891</v>
+        <v>0.02651648255174555</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02214166392481857</v>
+        <v>0.02224829029371676</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01412262521754097</v>
+        <v>0.02063074328381585</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05221907335088445</v>
+        <v>0.05407425258955448</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04944061920731487</v>
+        <v>0.04895084308293779</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05810751521012791</v>
+        <v>0.05045480716945325</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01204374641793469</v>
+        <v>0.01316125333582147</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03817793523213391</v>
+        <v>0.03865835932523153</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02745257123426829</v>
+        <v>0.02596305898617936</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02597465971082588</v>
+        <v>0.02816830807127334</v>
       </c>
     </row>
     <row r="13">
@@ -1109,13 +1109,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.006229447656413526</v>
+        <v>0.006496261356539663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01012483758154578</v>
+        <v>0.01018930839043456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009932118211661163</v>
+        <v>0.01024953987288612</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1127,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01314835819053516</v>
+        <v>0.01357204152791592</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005505884724799864</v>
+        <v>0.004357686432687525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008655280026541524</v>
+        <v>0.008275554145976409</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.014897410508828</v>
+        <v>0.01507442035280225</v>
       </c>
     </row>
     <row r="15">
@@ -1151,37 +1151,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.03971709072588228</v>
+        <v>0.03982222277797443</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04458692516723929</v>
+        <v>0.0474313000252675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03606436903330121</v>
+        <v>0.0361040337796513</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03877447627238287</v>
+        <v>0.03897561914620448</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02220957301592512</v>
+        <v>0.02747973087482993</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03159806644489177</v>
+        <v>0.03687914904341801</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06742949888714583</v>
+        <v>0.06436919755945682</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01255764259094712</v>
+        <v>0.01240309255874579</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02789675533194356</v>
+        <v>0.02739310493201987</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03549445026002346</v>
+        <v>0.03286724029239409</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03919232315175498</v>
+        <v>0.03890328712920212</v>
       </c>
     </row>
     <row r="16">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006513953956528379</v>
+        <v>0.006130851354972408</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01908759276105767</v>
+        <v>0.01904676021225314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01291340716320669</v>
+        <v>0.01388978368896127</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01292700451257645</v>
+        <v>0.01286673659893291</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001047425850539245</v>
+        <v>0.001045635230164051</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003989430035953255</v>
+        <v>0.004050775669103568</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007612361986156107</v>
+        <v>0.007333170297431944</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.013799416677956</v>
+        <v>0.01351014253383497</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005258036733776124</v>
+        <v>0.005314317052563975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01540431132422193</v>
+        <v>0.01505565497592577</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01257612129651212</v>
+        <v>0.01251131356857467</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01475281693365285</v>
+        <v>0.01455194447033042</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0158878097589113</v>
+        <v>0.01560274085434329</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03325975256484869</v>
+        <v>0.03431209395081573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02593431354635722</v>
+        <v>0.02694003384571531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02541437535259547</v>
+        <v>0.02553824402119308</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.009631511584538531</v>
+        <v>0.009873776437735012</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01742831928853828</v>
+        <v>0.01711580406747117</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0226490967284679</v>
+        <v>0.02271330228111964</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03620878507826701</v>
+        <v>0.03576705386687489</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01204882028251869</v>
+        <v>0.01202096000664895</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02638667591107878</v>
+        <v>0.02548938457382578</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02252291618990541</v>
+        <v>0.02223660182819396</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.025958721733023</v>
+        <v>0.02537171040692832</v>
       </c>
     </row>
     <row r="19">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2924</v>
+        <v>2917</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14203</v>
+        <v>14055</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9851</v>
+        <v>9709</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3897</v>
+        <v>3850</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3657</v>
+        <v>3161</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15463</v>
+        <v>15717</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12834</v>
+        <v>13278</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5309</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="7">
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13091</v>
+        <v>13274</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33905</v>
+        <v>32951</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28081</v>
+        <v>27948</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13959</v>
+        <v>13871</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5010</v>
+        <v>3777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6065</v>
+        <v>6825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8720</v>
+        <v>8152</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4490</v>
+        <v>5111</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14777</v>
+        <v>14019</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>36047</v>
+        <v>35862</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>31928</v>
+        <v>31456</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15876</v>
+        <v>15915</v>
       </c>
     </row>
     <row r="8">
@@ -1768,36 +1768,36 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4068</v>
+        <v>3987</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5792</v>
+        <v>5441</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2258</v>
+        <v>2942</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3050</v>
+        <v>3214</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1185</v>
+        <v>1251</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3995</v>
+        <v>4797</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5740</v>
+        <v>5395</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5249</v>
+        <v>5213</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6283</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="11">
@@ -1808,36 +1808,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17073</v>
+        <v>16184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22439</v>
+        <v>21167</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12685</v>
+        <v>13396</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13936</v>
+        <v>13759</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>9419</v>
+        <v>10079</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10289</v>
+        <v>10588</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15959</v>
+        <v>17412</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21237</v>
+        <v>21677</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19711</v>
+        <v>18290</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>20108</v>
+        <v>19955</v>
       </c>
     </row>
     <row r="12">
@@ -1940,40 +1940,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6947</v>
+        <v>7104</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2253</v>
+        <v>2754</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2058</v>
+        <v>2182</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2186</v>
+        <v>2204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2149</v>
+        <v>1697</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1525</v>
+        <v>1022</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11730</v>
+        <v>11421</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6335</v>
+        <v>6830</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5539</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="15">
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10984</v>
+        <v>11007</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22330</v>
+        <v>22743</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12578</v>
+        <v>14046</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11169</v>
+        <v>11223</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4473</v>
+        <v>6535</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14465</v>
+        <v>14979</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14416</v>
+        <v>14273</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15404</v>
+        <v>13375</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11718</v>
+        <v>12806</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31427</v>
+        <v>31822</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22546</v>
+        <v>21323</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19988</v>
+        <v>21676</v>
       </c>
     </row>
     <row r="16">
@@ -2121,13 +2121,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>1838</v>
+        <v>1916</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3239</v>
+        <v>3260</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4800</v>
+        <v>4954</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3536</v>
+        <v>3650</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2546</v>
+        <v>2015</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4396</v>
+        <v>4203</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11206</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="19">
@@ -2163,37 +2163,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>11716</v>
+        <v>11747</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14264</v>
+        <v>15174</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17430</v>
+        <v>17450</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5111</v>
+        <v>5137</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3720</v>
+        <v>4603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5938</v>
+        <v>6931</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18133</v>
+        <v>17310</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5127</v>
+        <v>5064</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>12901</v>
+        <v>12668</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>18026</v>
+        <v>16692</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29482</v>
+        <v>29264</v>
       </c>
     </row>
     <row r="20">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12156</v>
+        <v>11441</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38713</v>
+        <v>38630</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25649</v>
+        <v>27588</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21405</v>
+        <v>21305</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4153</v>
+        <v>4217</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8659</v>
+        <v>8341</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12279</v>
+        <v>12021</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14433</v>
+        <v>14587</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>47279</v>
+        <v>46208</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>39284</v>
+        <v>39082</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>37555</v>
+        <v>37044</v>
       </c>
     </row>
     <row r="23">
@@ -2340,40 +2340,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29648</v>
+        <v>29116</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>67456</v>
+        <v>69590</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51512</v>
+        <v>53509</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42082</v>
+        <v>42287</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8464</v>
+        <v>8677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18143</v>
+        <v>17818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25763</v>
+        <v>25836</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>32218</v>
+        <v>31825</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33073</v>
+        <v>32997</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>80985</v>
+        <v>78231</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>70355</v>
+        <v>69461</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>66081</v>
+        <v>64587</v>
       </c>
     </row>
     <row r="24">
